--- a/demo_sheet.xlsx
+++ b/demo_sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenfanchao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE2C35-28A2-3840-B187-1C27F7399C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B8413A-A861-8F4A-929B-306ECFDA7DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1140" windowWidth="38400" windowHeight="21100" xr2:uid="{0E323C91-8D80-9547-99F4-2E3430086F0B}"/>
+    <workbookView xWindow="28800" yWindow="-1140" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0E323C91-8D80-9547-99F4-2E3430086F0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rate" sheetId="1" r:id="rId1"/>
+    <sheet name="Rate" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="RunTotal" sheetId="2" r:id="rId2"/>
-    <sheet name="Rate_Error" sheetId="3" r:id="rId3"/>
+    <sheet name="Rate " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F130520-1B7C-D94C-9B13-7128AB83CB02}">
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -3275,7 +3275,7 @@
   <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="A6" sqref="A6:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5994,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AB9C84-622D-4548-82CA-42FDF1854F6F}">
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6022,7 +6022,7 @@
         <v>3.5234080748799732</v>
       </c>
       <c r="C2">
-        <f>$A$1*B2</f>
+        <f t="shared" ref="C2:C9" si="0">$A$1*B2</f>
         <v>2.8187264599039787</v>
       </c>
     </row>
@@ -6031,8 +6031,8 @@
         <v>3.9613873878838968</v>
       </c>
       <c r="C3">
-        <f>$A$1*B5</f>
-        <v>4.278663206337356</v>
+        <f t="shared" si="0"/>
+        <v>3.1691099103071174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
         <v>2.9986957758815014</v>
       </c>
       <c r="C4">
-        <f>$A$1*B4</f>
+        <f t="shared" si="0"/>
         <v>2.3989566207052011</v>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
         <v>5.348329007921695</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C2:C20" si="0">$A$1*B5</f>
+        <f t="shared" si="0"/>
         <v>4.278663206337356</v>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
         <v>2.7815987682490917</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C20" si="1">$A$1*B10</f>
         <v>2.2252790145992734</v>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
         <v>8.3677995409411778</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.694239632752943</v>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
         <v>5.3251435018619384</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2601148014895509</v>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
         <v>4.0385565625885871</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2308452500708698</v>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
         <v>1.1495543176118783E-2</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1964345408950265E-3</v>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
         <v>2.9850780706636462</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3880624565309172</v>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
         <v>5.1775004196483563</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1420003357186852</v>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
         <v>2.9366101639682785</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3492881311746228</v>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
         <v>9.6180853740730363</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6944682992584292</v>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
         <v>1.8190455734837119</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4552364587869695</v>
       </c>
     </row>
@@ -6184,7 +6184,7 @@
         <v>9.4500448609445904</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5600358887556727</v>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
         <v>4.2845320961134616</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C2:C65" si="1">$A$1*B21</f>
+        <f t="shared" ref="C21:C65" si="2">$A$1*B21</f>
         <v>3.4276256768907696</v>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
         <v>6.6123999682888135</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2899199746310508</v>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
         <v>0.60015728514942412</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4801258281195393</v>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
         <v>0.19040608178967577</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15232486543174062</v>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
         <v>8.2148396622389868</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5718717297911899</v>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>7.3326101942896003</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8660881554316804</v>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
         <v>0.2613357186804588</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20906857494436704</v>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
         <v>6.8152555799424253</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4522044639539402</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
         <v>3.5988103220780365</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8790482576624292</v>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>2.4410752320894447</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9528601856715557</v>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
         <v>3.2106004008559799</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5684803206847842</v>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
         <v>8.2116324370392562</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5693059496314055</v>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
         <v>2.3676234403897656</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8940987523118125</v>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
         <v>7.5936179996739703</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0748943997391764</v>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
         <v>9.6194253382562938</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6955402706050355</v>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
         <v>1.8115244275669995</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4492195420535996</v>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
         <v>2.1041934090798353</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6833547272638683</v>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
         <v>6.7575973435248651</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4060778748198928</v>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
         <v>2.4485741307359654</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9588593045887723</v>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
         <v>2.1555487384324845</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7244389907459876</v>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
         <v>7.9707944324468381</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3766355459574706</v>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
         <v>3.875727494605262</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1005819956842098</v>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         <v>3.9831927451646143</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1865541961316914</v>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>7.107561974864324</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6860495798914599</v>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
         <v>8.7522756982771295</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0018205586217039</v>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
         <v>7.3576102813859325</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8860882251087467</v>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
         <v>4.4258922727065553</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5407138181652442</v>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
         <v>1.3922701069511101</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1138160855608881</v>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
         <v>8.5422068841668537</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8337655073334833</v>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
         <v>4.1306503888722315</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3045203110977854</v>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
         <v>7.4858361983351207</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9886689586680966</v>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
         <v>8.980498296241187</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1843986369929498</v>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>7.4303439334322787</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9442751467458237</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>2.8993443185697387</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.319475454855791</v>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
         <v>6.6922140003405586</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3537712002724476</v>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
         <v>0.45746762889879555</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36597410311903644</v>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
         <v>1.9032351996510011</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5225881597208009</v>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
         <v>4.3891875431460292</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5113500345168234</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
         <v>4.7110737923243482</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7688590338594787</v>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
         <v>7.1750945587606427</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7400756470085144</v>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
         <v>8.3974168136494995</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7179334509195998</v>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
         <v>5.6463124550902108</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5170499640721689</v>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
         <v>7.7846064493806928</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2276851595045546</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>4.7443164234975139</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7954531387980115</v>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
         <v>9.60156720175857</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6812537614068566</v>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
         <v>3.8336100245382676</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="2">$A$1*B66</f>
+        <f t="shared" ref="C66:C129" si="3">$A$1*B66</f>
         <v>3.0668880196306141</v>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
         <v>3.2522685819735964</v>
       </c>
       <c r="C67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6018148655788771</v>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
         <v>1.7947534257453812</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.435802740596305</v>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
         <v>4.9556591051026411</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9645272840821129</v>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
         <v>3.056247949258907</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4449983594071258</v>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
         <v>1.2249266868289943</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97994134946319544</v>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
         <v>4.3771807820826094</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5017446256660878</v>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
         <v>2.0054368254002575</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.604349460320206</v>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
         <v>5.8226859454189057</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6581487563351249</v>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
         <v>8.992267673448108</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1938141387584871</v>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
         <v>8.9553331469822908</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1642665175858333</v>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
         <v>3.9669376482924488</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1735501186339592</v>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
         <v>1.0347714637786931</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82781717102295449</v>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
         <v>9.8630038937746161</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8904031150196934</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
         <v>8.1275101384437463</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5020081107549972</v>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
         <v>1.227795184009951</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98223614720796082</v>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
         <v>9.1055885919492301</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2844708735593846</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
         <v>5.2793568802374393</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2234855041899513</v>
       </c>
     </row>
@@ -6760,8 +6760,8 @@
         <v>4.1368013533371322</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
-        <v>3.3094410826697058</v>
+        <f>$A$1*B89</f>
+        <v>6.964149745731695</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
         <v>7.558842347118258</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0470738776946069</v>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
         <v>2.4031276454875394</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9225021163900315</v>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
         <v>0.43979293433593747</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35183434746874998</v>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
         <v>7.5167790975464417</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0134232780371537</v>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         <v>8.7051871821646181</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.964149745731695</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
         <v>5.2699881378466849</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2159905102773481</v>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
         <v>2.9491550162991489</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3593240130393194</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
         <v>8.1789511532235242</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5431609225788199</v>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
         <v>5.3750650579771619</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3000520463817296</v>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
         <v>8.0095425273669587</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4076340218935677</v>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
         <v>1.1644276771406059</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93154214171248473</v>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
         <v>2.6417628021173165</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1134102416938534</v>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
         <v>5.4960879820124173</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.396870385609934</v>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
         <v>2.4254706256132685E-3</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9403765004906148E-3</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
         <v>3.2563190034047462</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.605055202723797</v>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
         <v>7.240937811064998</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7927502488519984</v>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
         <v>2.7153481387389178</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1722785109911342</v>
       </c>
     </row>
@@ -6922,7 +6922,7 @@
         <v>8.4088008178684159</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7270406542947327</v>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
         <v>2.5515433605632989</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0412346884506394</v>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
         <v>7.6154198472668346</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0923358778134684</v>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
         <v>3.8826813106113187</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1061450484890551</v>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
         <v>4.3730684835253459</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4984547868202771</v>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
         <v>2.6493545965209986</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1194836772167989</v>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
         <v>2.6102133440578612</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.088170675246289</v>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>0.96303379357404184</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77042703485923347</v>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>0.76932192577955361</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61545754062364288</v>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
         <v>4.2726463365333629</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4181170692266907</v>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
         <v>9.6266208445417245</v>
       </c>
       <c r="C112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7012966756333796</v>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
         <v>0.49851121598599502</v>
       </c>
       <c r="C113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39880897278879601</v>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
         <v>6.6153976700987762</v>
       </c>
       <c r="C114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2923181360790217</v>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
         <v>4.6501944039152008</v>
       </c>
       <c r="C115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7201555231321608</v>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
         <v>0.22064981043921295</v>
       </c>
       <c r="C116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17651984835137036</v>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
         <v>5.6405296987122266</v>
       </c>
       <c r="C117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5124237589697813</v>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
         <v>2.4152167902727415</v>
       </c>
       <c r="C118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9321734322181934</v>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
         <v>6.3962475012141828</v>
       </c>
       <c r="C119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1169980009713463</v>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
         <v>6.5157975713241081</v>
       </c>
       <c r="C120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2126380570592872</v>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
         <v>9.8818792557434643E-2</v>
       </c>
       <c r="C121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9055034045947714E-2</v>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>0.18996437677315958</v>
       </c>
       <c r="C122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15197150141852767</v>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
         <v>4.1099906056933566</v>
       </c>
       <c r="C123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2879924845546853</v>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
         <v>8.0091511428696904</v>
       </c>
       <c r="C124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4073209142957523</v>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
         <v>9.7238667931604148</v>
       </c>
       <c r="C125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.779093434528332</v>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
         <v>3.349526569957729</v>
       </c>
       <c r="C126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6796212559661834</v>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
         <v>7.0630763058159047</v>
       </c>
       <c r="C127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6504610446527241</v>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
         <v>2.3960490992957073</v>
       </c>
       <c r="C128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9168392794365658</v>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
         <v>8.0139090851999271</v>
       </c>
       <c r="C129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4111272681599418</v>
       </c>
     </row>
@@ -7174,7 +7174,7 @@
         <v>8.9548278574240694</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C193" si="3">$A$1*B130</f>
+        <f t="shared" ref="C130:C193" si="4">$A$1*B130</f>
         <v>7.1638622859392562</v>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
         <v>5.7331841417830729</v>
       </c>
       <c r="C131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5865473134264585</v>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
         <v>8.4342714551606157</v>
       </c>
       <c r="C132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7474171641284926</v>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
         <v>9.0942799538203385</v>
       </c>
       <c r="C133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2754239630562711</v>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
         <v>2.1281701388623606</v>
       </c>
       <c r="C134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7025361110898887</v>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
         <v>1.0861329403539044</v>
       </c>
       <c r="C135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86890635228312352</v>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
         <v>5.0219956240330408</v>
       </c>
       <c r="C136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0175964992264328</v>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
         <v>3.7344705723440272</v>
       </c>
       <c r="C137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.987576457875222</v>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
         <v>4.1530956538842148</v>
       </c>
       <c r="C138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3224765231073721</v>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
         <v>1.2984435334962485</v>
       </c>
       <c r="C139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0387548267969988</v>
       </c>
     </row>
@@ -7264,7 +7264,7 @@
         <v>8.2452688131553078</v>
       </c>
       <c r="C140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5962150505242469</v>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
         <v>6.0426093815937918</v>
       </c>
       <c r="C141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8340875052750336</v>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
         <v>6.9257814843727292</v>
       </c>
       <c r="C142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5406251874981836</v>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
         <v>3.387644644654789</v>
       </c>
       <c r="C143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7101157157238314</v>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
         <v>0.58339860838533375</v>
       </c>
       <c r="C144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.466718886708267</v>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
         <v>3.1599107904667836</v>
       </c>
       <c r="C145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5279286323734271</v>
       </c>
     </row>
@@ -7318,7 +7318,7 @@
         <v>8.2950050039394583</v>
       </c>
       <c r="C146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6360040031515668</v>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
         <v>9.8895108550089983</v>
       </c>
       <c r="C147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9116086840071986</v>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
         <v>9.5597722058423376</v>
       </c>
       <c r="C148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6478177646738708</v>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
         <v>0.93583511645391138</v>
       </c>
       <c r="C149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7486680931631291</v>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
         <v>2.4844535552241931</v>
       </c>
       <c r="C150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9875628441793545</v>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
         <v>6.1215671715661371</v>
       </c>
       <c r="C151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8972537372529104</v>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
         <v>3.1652862059899647</v>
       </c>
       <c r="C152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.532228964791972</v>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
         <v>6.0792129931991665</v>
       </c>
       <c r="C153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8633703945593334</v>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
         <v>3.6769093448885926</v>
       </c>
       <c r="C154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.941527475910874</v>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
         <v>6.3924007291849927</v>
       </c>
       <c r="C155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1139205833479942</v>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
         <v>9.6826533107397736</v>
       </c>
       <c r="C156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7461226485918191</v>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
         <v>7.2141816267585304</v>
       </c>
       <c r="C157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.771345301406825</v>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
         <v>5.4778650116357577</v>
       </c>
       <c r="C158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.382292009308606</v>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
         <v>1.0137385329512916</v>
       </c>
       <c r="C159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81099082636103326</v>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
         <v>8.7672150733989778</v>
       </c>
       <c r="C160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0137720587191827</v>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
         <v>1.6059146693462611</v>
       </c>
       <c r="C161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2847317354770089</v>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
         <v>8.1513815853043656</v>
       </c>
       <c r="C162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5211052682434927</v>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
         <v>0.3053411539754225</v>
       </c>
       <c r="C163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.244272923180338</v>
       </c>
     </row>
@@ -7480,7 +7480,7 @@
         <v>2.156407605652324</v>
       </c>
       <c r="C164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7251260845218592</v>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
         <v>3.7114190567031247</v>
       </c>
       <c r="C165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9691352453624997</v>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
         <v>0.50153592651823176</v>
       </c>
       <c r="C166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4012287412145854</v>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
         <v>7.2882378893567328</v>
       </c>
       <c r="C167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8305903114853868</v>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
         <v>3.8614188776114187</v>
       </c>
       <c r="C168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0891351020891351</v>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
         <v>8.2078169048401364</v>
       </c>
       <c r="C169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5662535238721098</v>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
         <v>2.7586430142747362</v>
       </c>
       <c r="C170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2069144114197892</v>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
         <v>4.9233188639602377</v>
       </c>
       <c r="C171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9386550911681901</v>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         <v>9.9932012547835676</v>
       </c>
       <c r="C172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9945610038268544</v>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
         <v>8.8112014426481249</v>
       </c>
       <c r="C173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0489611541185004</v>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
         <v>7.4368286156685004</v>
       </c>
       <c r="C174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9494628925348003</v>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
         <v>6.7208534923531085</v>
       </c>
       <c r="C175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3766827938824875</v>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
         <v>4.0660011505457767</v>
       </c>
       <c r="C176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2528009204366217</v>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
         <v>7.3848704088378794</v>
       </c>
       <c r="C177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9078963270703042</v>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
         <v>4.0749991844398439</v>
       </c>
       <c r="C178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2599993475518754</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
         <v>3.1335223919448527</v>
       </c>
       <c r="C179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5068179135558823</v>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
         <v>5.6519084957691259</v>
       </c>
       <c r="C180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5215267966153005</v>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
         <v>2.9667706432048879</v>
       </c>
       <c r="C181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3734165145639103</v>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
         <v>2.5724781671824615</v>
       </c>
       <c r="C182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0579825337459692</v>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
         <v>6.4248024471214684</v>
       </c>
       <c r="C183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1398419576971754</v>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
         <v>4.5970714332538716</v>
       </c>
       <c r="C184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6776571466030976</v>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
         <v>6.189182409596504</v>
       </c>
       <c r="C185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9513459276772034</v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
         <v>7.0960548477901515</v>
       </c>
       <c r="C186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6768438782321216</v>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
         <v>8.8910345707867826</v>
       </c>
       <c r="C187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1128276566294266</v>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
         <v>9.731703799669134</v>
       </c>
       <c r="C188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7853630397353077</v>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
         <v>8.1900864279781818</v>
       </c>
       <c r="C189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5520691423825461</v>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
         <v>5.558338813001753</v>
       </c>
       <c r="C190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4466710504014024</v>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
         <v>5.2482320929538551</v>
       </c>
       <c r="C191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1985856743630841</v>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
         <v>7.2399095678631902</v>
       </c>
       <c r="C192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7919276542905527</v>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
         <v>0.97770792493605763</v>
       </c>
       <c r="C193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7821663399488461</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
         <v>5.1016553350716167</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="4">$A$1*B194</f>
+        <f t="shared" ref="C194:C257" si="5">$A$1*B194</f>
         <v>4.0813242680572932</v>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
         <v>7.3501895445174759</v>
       </c>
       <c r="C195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8801516356139807</v>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
         <v>5.7926708197309198</v>
       </c>
       <c r="C196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6341366557847357</v>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
         <v>0.35353262057987167</v>
       </c>
       <c r="C197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28282609646389734</v>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
         <v>1.8047224499432724</v>
       </c>
       <c r="C198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4437779599546179</v>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
         <v>9.5658201333072377</v>
       </c>
       <c r="C199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6526561066457903</v>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>8.1488914931190166</v>
       </c>
       <c r="C200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5191131944952136</v>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
         <v>2.7311786728690555</v>
       </c>
       <c r="C201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1849429382952446</v>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
         <v>5.1136724612603093</v>
       </c>
       <c r="C202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0909379690082472</v>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
         <v>3.058005870920292</v>
       </c>
       <c r="C203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4464046967362338</v>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
         <v>3.540487602966147</v>
       </c>
       <c r="C204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8323900823729176</v>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
         <v>7.197503859915817</v>
       </c>
       <c r="C205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7580030879326536</v>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
         <v>8.3936526817300834</v>
       </c>
       <c r="C206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7149221453840671</v>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
         <v>6.7822230832383879</v>
       </c>
       <c r="C207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4257784665907103</v>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
         <v>5.5276993832931041</v>
       </c>
       <c r="C208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4221595066344834</v>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
         <v>9.3856161805669345</v>
       </c>
       <c r="C209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5084929444535478</v>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
         <v>4.7801262439256771</v>
       </c>
       <c r="C210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.824100995140542</v>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
         <v>0.44324041081751808</v>
       </c>
       <c r="C211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35459232865401447</v>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
         <v>9.7393695119780475</v>
       </c>
       <c r="C212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7914956095824381</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>5.2227747043701154</v>
       </c>
       <c r="C213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1782197634960925</v>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>4.562546196000886</v>
       </c>
       <c r="C214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6500369568007089</v>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
         <v>0.22543241556073457</v>
       </c>
       <c r="C215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18034593244858765</v>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
         <v>1.4260458430816925</v>
       </c>
       <c r="C216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.140836674465354</v>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
         <v>7.1183550078260058</v>
       </c>
       <c r="C217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6946840062608048</v>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
         <v>0.97329306383647896</v>
       </c>
       <c r="C218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77863445106918316</v>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
         <v>9.5059349476670576</v>
       </c>
       <c r="C219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6047479581336468</v>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
         <v>0.5813534212735938</v>
       </c>
       <c r="C220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46508273701887504</v>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
         <v>0.37964194674066754</v>
       </c>
       <c r="C221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30371355739253403</v>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
         <v>7.6587475234403399</v>
       </c>
       <c r="C222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1269980187522721</v>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
         <v>7.0053834642115733</v>
       </c>
       <c r="C223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6043067713692594</v>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
         <v>9.7673095288078926</v>
       </c>
       <c r="C224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8138476230463141</v>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
         <v>1.4007744596319838</v>
       </c>
       <c r="C225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.120619567705587</v>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
         <v>1.118032187012713</v>
       </c>
       <c r="C226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89442574961017041</v>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
         <v>0.64249988987192252</v>
       </c>
       <c r="C227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51399991189753802</v>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
         <v>4.684737998667484</v>
       </c>
       <c r="C228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7477903989339874</v>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v>6.6479837649253328</v>
       </c>
       <c r="C229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.318387011940267</v>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
         <v>4.3903403297479029</v>
       </c>
       <c r="C230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5122722637983226</v>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
         <v>2.9674674256643243</v>
       </c>
       <c r="C231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3739739405314597</v>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
         <v>8.172630007895167</v>
       </c>
       <c r="C232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.538104006316134</v>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
         <v>2.6079464650318651</v>
       </c>
       <c r="C233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0863571720254921</v>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
         <v>6.9847582432267981</v>
       </c>
       <c r="C234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5878065945814388</v>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
         <v>3.8936035924316545</v>
       </c>
       <c r="C235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1148828739453238</v>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
         <v>7.9199411870147909</v>
       </c>
       <c r="C236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3359529496118334</v>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
         <v>1.4788580300783627</v>
       </c>
       <c r="C237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1830864240626902</v>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
         <v>5.403155625598778</v>
       </c>
       <c r="C238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3225245004790223</v>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
         <v>2.3476927130413383</v>
       </c>
       <c r="C239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8781541704330706</v>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
         <v>0.10847228600902925</v>
       </c>
       <c r="C240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6777828807223401E-2</v>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
         <v>3.6310138594934713</v>
       </c>
       <c r="C241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9048110875947772</v>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
         <v>5.7771657494845492</v>
       </c>
       <c r="C242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6217325995876397</v>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
         <v>7.5354280426521356</v>
       </c>
       <c r="C243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0283424341217087</v>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
         <v>6.9086028956547549</v>
       </c>
       <c r="C244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5268823165238041</v>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
         <v>6.5522336138852255</v>
       </c>
       <c r="C245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2417868911081804</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>8.9812509438660886</v>
       </c>
       <c r="C246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1850007550928714</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
         <v>1.7707427985192759</v>
       </c>
       <c r="C247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4165942388154207</v>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
         <v>4.5490837989672013</v>
       </c>
       <c r="C248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6392670391737614</v>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
         <v>2.1021734637470568</v>
       </c>
       <c r="C249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6817387709976455</v>
       </c>
     </row>
@@ -8254,7 +8254,7 @@
         <v>1.6350547414444783</v>
       </c>
       <c r="C250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3080437931555826</v>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
         <v>2.7142973186006278</v>
       </c>
       <c r="C251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1714378548805024</v>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
         <v>0.58301317163920841</v>
       </c>
       <c r="C252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46641053731136672</v>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
         <v>5.4962902592671448</v>
       </c>
       <c r="C253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3970322074137158</v>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
         <v>6.6476694431258547</v>
       </c>
       <c r="C254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3181355545006843</v>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
         <v>3.9587659180712507</v>
       </c>
       <c r="C255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1670127344570007</v>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
         <v>6.7812502752726287</v>
       </c>
       <c r="C256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4250002202181031</v>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
         <v>3.7076293396493698</v>
       </c>
       <c r="C257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9661034717194958</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
         <v>7.5441217244643468</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C300" si="5">$A$1*B258</f>
+        <f t="shared" ref="C258:C300" si="6">$A$1*B258</f>
         <v>6.0352973795714782</v>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
         <v>3.0351243163656036</v>
       </c>
       <c r="C259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4280994530924831</v>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
         <v>9.8530647456777594</v>
       </c>
       <c r="C260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8824517965422078</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
         <v>9.1759142998735168</v>
       </c>
       <c r="C261">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3407314398988142</v>
       </c>
     </row>
@@ -8362,7 +8362,7 @@
         <v>5.8223222641720724</v>
       </c>
       <c r="C262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6578578113376583</v>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
         <v>5.4429189839984033</v>
       </c>
       <c r="C263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.354335187198723</v>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
         <v>1.2260686189964243</v>
       </c>
       <c r="C264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98085489519713942</v>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
         <v>8.986106339751295</v>
       </c>
       <c r="C265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1888850718010362</v>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
         <v>0.17384673511553483</v>
       </c>
       <c r="C266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13907738809242787</v>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
         <v>5.5895423161588962</v>
       </c>
       <c r="C267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4716338529271171</v>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>8.8075286615628965</v>
       </c>
       <c r="C268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0460229292503174</v>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
         <v>3.458673475176719</v>
       </c>
       <c r="C269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7669387801413752</v>
       </c>
     </row>
@@ -8434,7 +8434,7 @@
         <v>8.2984616133971834</v>
       </c>
       <c r="C270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6387692907177467</v>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
         <v>8.5033265205757349</v>
       </c>
       <c r="C271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8026612164605886</v>
       </c>
     </row>
@@ -8452,7 +8452,7 @@
         <v>7.02142650337737</v>
       </c>
       <c r="C272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6171412027018963</v>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
         <v>7.4822239226501601</v>
       </c>
       <c r="C273">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9857791381201286</v>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
         <v>1.0693736715625446</v>
       </c>
       <c r="C274">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85549893725003567</v>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
         <v>7.3186591609476981</v>
       </c>
       <c r="C275">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8549273287581585</v>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
         <v>9.8903704152161147</v>
       </c>
       <c r="C276">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9122963321728923</v>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
         <v>5.5199301468626718</v>
       </c>
       <c r="C277">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4159441174901373</v>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
         <v>9.8221984097872763</v>
       </c>
       <c r="C278">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8577587278298218</v>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
         <v>2.580737083721778</v>
       </c>
       <c r="C279">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0645896669774224</v>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
         <v>3.7405864348401554</v>
       </c>
       <c r="C280">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9924691478721246</v>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
         <v>4.6078972530618065</v>
       </c>
       <c r="C281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6863178024494454</v>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
         <v>8.7887869183110627</v>
       </c>
       <c r="C282">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0310295346488507</v>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
         <v>8.6487473368686771</v>
       </c>
       <c r="C283">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9189978694949419</v>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
         <v>5.3937493785627524</v>
       </c>
       <c r="C284">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3149995028502017</v>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
         <v>1.5922955497654478</v>
       </c>
       <c r="C285">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2738364398123583</v>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
         <v>8.8074673425353787</v>
       </c>
       <c r="C286">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0459738740283031</v>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
         <v>8.5979779666652139</v>
       </c>
       <c r="C287">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8783823733321716</v>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
         <v>7.8532087684307106</v>
       </c>
       <c r="C288">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2825670147445685</v>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
         <v>6.0204226906432377</v>
       </c>
       <c r="C289">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8163381525145903</v>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
         <v>8.3990154774509289</v>
       </c>
       <c r="C290">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7192123819607437</v>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
         <v>3.1170412829424765</v>
       </c>
       <c r="C291">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4936330263539812</v>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
         <v>5.1910926018938506</v>
       </c>
       <c r="C292">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1528740815150806</v>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
         <v>4.5455584008049748</v>
       </c>
       <c r="C293">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6364467206439799</v>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
         <v>4.9454963153506357</v>
       </c>
       <c r="C294">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9563970522805088</v>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
         <v>3.510375655228557</v>
       </c>
       <c r="C295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8083005241828456</v>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
         <v>1.7019812959886615</v>
       </c>
       <c r="C296">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3615850367909292</v>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
         <v>8.1911401135255328</v>
       </c>
       <c r="C297">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5529120908204268</v>
       </c>
     </row>
@@ -8686,7 +8686,7 @@
         <v>1.202339815074609</v>
       </c>
       <c r="C298">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96187185205968717</v>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
         <v>3.4566444957444076</v>
       </c>
       <c r="C299">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7653155965955261</v>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
         <v>3.571811711242491</v>
       </c>
       <c r="C300">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.857449368993993</v>
       </c>
     </row>
